--- a/data/Planilha_geom_briefing.xlsx
+++ b/data/Planilha_geom_briefing.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Briefing semana de 26/04 à 02/05 de 2022</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t xml:space="preserve">- Magnetic field measured in the orbit of the GOES satellite showed disturbances on 04/27.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na semana de 26/04 a 02/05, destacam-se os seguintes eventos relacionados a atividade geomagnética:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Os dados provenientes da rede de magnetômetros Embrace apresentaram instabilidades durante todo o período, com alguns eventos em destaque:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dia 27, queda na componente H em todas as estações, de até -100 nT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A atividade geomagnética foi mais perturbada no dia 24/05, com o índice Dst atingindo seu valor mínimo de -30 nT em . O Kp mais alto da semana foi de 5+ registrado em 27/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A atividade auroral foi intensificada no período de 27 à 30/04, cm destaque para esses dois dias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Campo magnético medido na órbita do satélite GOES apresentou perturbações no dia 27/04.</t>
   </si>
 </sst>
 </file>
@@ -228,9 +246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -240,7 +258,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5391000"/>
-          <a:ext cx="304560" cy="293400"/>
+          <a:ext cx="304200" cy="293040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -268,9 +286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -280,7 +298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5391000"/>
-          <a:ext cx="304560" cy="293400"/>
+          <a:ext cx="304200" cy="293040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -308,9 +326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -319,8 +337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622800" y="0"/>
-          <a:ext cx="304560" cy="299520"/>
+          <a:off x="623520" y="0"/>
+          <a:ext cx="304200" cy="299160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -348,9 +366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -359,8 +377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622800" y="1333440"/>
-          <a:ext cx="304560" cy="293040"/>
+          <a:off x="623520" y="1333440"/>
+          <a:ext cx="304200" cy="292680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -388,9 +406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -400,7 +418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2660760"/>
-          <a:ext cx="304560" cy="293040"/>
+          <a:ext cx="304200" cy="292680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -428,9 +446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -439,8 +457,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622800" y="0"/>
-          <a:ext cx="304560" cy="299520"/>
+          <a:off x="623520" y="0"/>
+          <a:ext cx="304200" cy="299160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,9 +486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -479,8 +497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622800" y="0"/>
-          <a:ext cx="304560" cy="299520"/>
+          <a:off x="623520" y="0"/>
+          <a:ext cx="304200" cy="299160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -508,9 +526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -519,8 +537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622800" y="0"/>
-          <a:ext cx="304560" cy="299520"/>
+          <a:off x="623520" y="0"/>
+          <a:ext cx="304200" cy="299160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -548,9 +566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -560,7 +578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8640" y="7747200"/>
-          <a:ext cx="304560" cy="291600"/>
+          <a:ext cx="304200" cy="291240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,9 +606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -599,8 +617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962720" y="5048280"/>
-          <a:ext cx="304560" cy="298080"/>
+          <a:off x="1964160" y="5048280"/>
+          <a:ext cx="304200" cy="297720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -628,9 +646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -639,8 +657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962720" y="5048280"/>
-          <a:ext cx="304560" cy="298080"/>
+          <a:off x="1964160" y="5048280"/>
+          <a:ext cx="304200" cy="297720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,9 +686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -679,8 +697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962720" y="4876920"/>
-          <a:ext cx="304560" cy="298080"/>
+          <a:off x="1964160" y="4876920"/>
+          <a:ext cx="304200" cy="297720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,9 +726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -720,7 +738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6076800"/>
-          <a:ext cx="304560" cy="298440"/>
+          <a:ext cx="304200" cy="298080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,9 +766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>16200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -759,8 +777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1729440" y="3181320"/>
-          <a:ext cx="249840" cy="291960"/>
+          <a:off x="1730160" y="3181320"/>
+          <a:ext cx="250200" cy="291600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,9 +806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -799,8 +817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962720" y="4476600"/>
-          <a:ext cx="304560" cy="298440"/>
+          <a:off x="1964160" y="4476600"/>
+          <a:ext cx="304200" cy="298080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,9 +846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -839,8 +857,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962720" y="4476600"/>
-          <a:ext cx="304560" cy="298440"/>
+          <a:off x="1964160" y="4476600"/>
+          <a:ext cx="304200" cy="298080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,9 +886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -880,7 +898,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12820680"/>
-          <a:ext cx="304560" cy="298080"/>
+          <a:ext cx="304200" cy="297720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,9 +926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290880</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -924,7 +942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10591920"/>
-          <a:ext cx="2877120" cy="2083320"/>
+          <a:ext cx="2878560" cy="2082960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,9 +963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>253080</xdr:colOff>
+      <xdr:colOff>252720</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -960,8 +978,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3326760" y="10591920"/>
-          <a:ext cx="2874240" cy="2083320"/>
+          <a:off x="3328560" y="10591920"/>
+          <a:ext cx="2875320" cy="2082960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,9 +1000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>445680</xdr:colOff>
+      <xdr:colOff>445320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -998,7 +1016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="399960"/>
-          <a:ext cx="3031560" cy="2115360"/>
+          <a:ext cx="3033000" cy="2115000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,9 +1037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>177120</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1035,7 +1053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7448400"/>
-          <a:ext cx="8711280" cy="2768400"/>
+          <a:ext cx="8715960" cy="2768040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,9 +1074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>245160</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1072,7 +1090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5048280"/>
-          <a:ext cx="3572280" cy="2083320"/>
+          <a:ext cx="3573720" cy="2082960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1093,9 +1111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>565560</xdr:colOff>
+      <xdr:colOff>565200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1109,7 +1127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2762280"/>
-          <a:ext cx="3151440" cy="2089800"/>
+          <a:ext cx="3152880" cy="2089440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,9 +1148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527400</xdr:colOff>
+      <xdr:colOff>527040</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1145,8 +1163,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3326760" y="2762280"/>
-          <a:ext cx="3148560" cy="2089800"/>
+          <a:off x="3328560" y="2762280"/>
+          <a:ext cx="3149640" cy="2089440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,9 +1185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>410760</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>410400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1182,8 +1200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3330000" y="247680"/>
-          <a:ext cx="3028680" cy="2115000"/>
+          <a:off x="3331800" y="247680"/>
+          <a:ext cx="3029760" cy="2114640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,9 +1227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>320760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1224,8 +1242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622800" y="2400480"/>
-          <a:ext cx="1920240" cy="1388880"/>
+          <a:off x="623520" y="2400480"/>
+          <a:ext cx="1920240" cy="1388520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1251,11 +1269,11 @@
       <selection pane="topLeft" activeCell="P31" activeCellId="0" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.16"/>
   </cols>
   <sheetData>
@@ -1341,7 +1359,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.83"/>
   </cols>
@@ -1475,7 +1493,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="214.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1522,40 +1540,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="177.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
